--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1026,7 +1026,7 @@
         <v>45104</v>
       </c>
       <c r="B3">
-        <v>36.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -993,13 +993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
@@ -1034,7 +1034,7 @@
         <v>45105</v>
       </c>
       <c r="B4">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1067,6 +1067,31 @@
       </c>
       <c r="B8">
         <v>36.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>45114</v>
       </c>
     </row>
   </sheetData>

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\excel2chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4735AFA-BC19-4A5D-A1EF-26966BAE96F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0B926-E5C4-4A69-8683-A1CC12B60E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -447,10 +447,16 @@
       <c r="A7" s="1">
         <v>45108</v>
       </c>
+      <c r="B7">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45109</v>
+      </c>
+      <c r="B8">
+        <v>36.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\excel2chart\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0B926-E5C4-4A69-8683-A1CC12B60E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17295" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +27,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,22 +44,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -69,9 +390,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -83,17 +646,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,25 +987,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>45103</v>
       </c>
@@ -414,7 +1021,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>45104</v>
       </c>
@@ -422,7 +1029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>45105</v>
       </c>
@@ -430,7 +1037,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>45106</v>
       </c>
@@ -438,12 +1045,12 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>45107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>45108</v>
       </c>
@@ -451,7 +1058,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>45109</v>
       </c>
@@ -459,62 +1066,71 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>45110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>45111</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1">
         <v>45112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1">
         <v>45113</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>45114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -993,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1092,6 +1092,41 @@
     <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>45114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>45121</v>
       </c>
     </row>
   </sheetData>

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1079,9 +1079,12 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>45112</v>
+      </c>
+      <c r="B11">
+        <v>36.4</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1087,9 +1087,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>45113</v>
+      </c>
+      <c r="B12">
+        <v>36.3</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1095,9 +1095,12 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>45114</v>
+      </c>
+      <c r="B13">
+        <v>36.5</v>
       </c>
     </row>
     <row r="14" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1103,19 +1103,28 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>45115</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>45116</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>45117</v>
+      </c>
+      <c r="B16">
+        <v>36.1</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1127,9 +1127,12 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>45118</v>
+      </c>
+      <c r="B17">
+        <v>36.5</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17295" windowHeight="11205"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1135,9 +1135,12 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>45119</v>
+      </c>
+      <c r="B18">
+        <v>36.2</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -993,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1143,14 +1143,42 @@
         <v>36.2</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45120</v>
+      </c>
+      <c r="B19">
+        <v>36.5</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>45121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>45126</v>
       </c>
     </row>
   </sheetData>

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\excel2chart\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985C67A-EF4D-4A3F-AABC-24A692E8E6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +27,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,22 +44,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -69,9 +390,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -79,21 +642,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,25 +987,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>45103</v>
       </c>
@@ -414,7 +1021,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>45104</v>
       </c>
@@ -422,7 +1029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>45105</v>
       </c>
@@ -430,7 +1037,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>45106</v>
       </c>
@@ -438,12 +1045,12 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>45107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>45108</v>
       </c>
@@ -451,7 +1058,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>45109</v>
       </c>
@@ -459,20 +1066,20 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>45110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>45111</v>
       </c>
       <c r="B10">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>45112</v>
       </c>
@@ -480,15 +1087,15 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>45113</v>
       </c>
       <c r="B12">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>45114</v>
       </c>
@@ -496,7 +1103,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>45115</v>
       </c>
@@ -504,15 +1111,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>45116</v>
       </c>
       <c r="B15">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>45117</v>
       </c>
@@ -520,7 +1127,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>45118</v>
       </c>
@@ -528,15 +1135,15 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>45119</v>
       </c>
       <c r="B18">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45120</v>
       </c>
@@ -544,15 +1151,15 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>45121</v>
       </c>
       <c r="B20">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>45122</v>
       </c>
@@ -560,57 +1167,69 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>45123</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>45124</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>45125</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>45126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -993,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1015,65 +1015,68 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="B3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
-        <v>45105</v>
-      </c>
-      <c r="B4">
-        <v>36.5</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>45106</v>
+        <v>45111</v>
       </c>
       <c r="B5">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>45107</v>
+        <v>45112</v>
+      </c>
+      <c r="B6">
+        <v>36.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>45108</v>
+        <v>45113</v>
       </c>
       <c r="B7">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>45109</v>
+        <v>45114</v>
       </c>
       <c r="B8">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>45110</v>
+        <v>45115</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>45111</v>
+        <v>45116</v>
       </c>
       <c r="B10">
         <v>36.3</v>
@@ -1081,115 +1084,75 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="B11">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>45113</v>
+        <v>45118</v>
       </c>
       <c r="B12">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>45114</v>
+        <v>45119</v>
       </c>
       <c r="B13">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>45115</v>
+        <v>45120</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>45116</v>
+        <v>45121</v>
       </c>
       <c r="B15">
-        <v>36.3</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>45117</v>
+        <v>45122</v>
       </c>
       <c r="B16">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>45118</v>
+        <v>45123</v>
       </c>
       <c r="B17">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B18">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
-        <v>45120</v>
-      </c>
-      <c r="B19">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B20">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>45122</v>
-      </c>
-      <c r="B21">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>45123</v>
-      </c>
-      <c r="B22">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>45124</v>
-      </c>
-      <c r="B23">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
         <v>45126</v>
       </c>
     </row>

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -44,34 +44,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -85,14 +57,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,6 +101,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,7 +161,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,49 +197,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,121 +335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,21 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +420,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,148 +493,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -648,52 +648,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -993,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1146,14 +1146,80 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>45125</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>45126</v>
+      </c>
+      <c r="B20">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>45138</v>
       </c>
     </row>
   </sheetData>

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27525" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1162,9 +1162,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>45127</v>
+      </c>
+      <c r="B21">
+        <v>36.3</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1170,19 +1170,28 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>45128</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>45129</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>45130</v>
+      </c>
+      <c r="B24">
+        <v>36.3</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1194,9 +1194,12 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>45131</v>
+      </c>
+      <c r="B25">
+        <v>36.1</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1202,19 +1202,28 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>45132</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>45133</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>45134</v>
+      </c>
+      <c r="B28">
+        <v>36.3</v>
       </c>
     </row>
     <row r="29" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1226,9 +1226,12 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>45135</v>
+      </c>
+      <c r="B29">
+        <v>36.7</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\excel2chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA327FBA-3972-4D4D-AD01-90BA13864E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BEB8B-3D20-40C6-982C-FFAD939A18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4570" yWindow="2040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" activeCellId="1" sqref="B31 D33"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -426,6 +426,9 @@
       <c r="A4" s="1">
         <v>45110</v>
       </c>
+      <c r="B4">
+        <v>36.299999999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -651,7 +654,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/src.xlsx
+++ b/excel/src.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\excel2chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BEB8B-3D20-40C6-982C-FFAD939A18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A072F892-F323-487B-B841-BD75E2B48185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4570" yWindow="2040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -411,242 +411,155 @@
         <v>45108</v>
       </c>
       <c r="B2">
-        <v>36.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45109</v>
       </c>
-      <c r="B3">
-        <v>36.6</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45110</v>
       </c>
-      <c r="B4">
-        <v>36.299999999999997</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45111</v>
       </c>
-      <c r="B5">
-        <v>36.299999999999997</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45112</v>
       </c>
-      <c r="B6">
-        <v>36.4</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45113</v>
       </c>
-      <c r="B7">
-        <v>36.299999999999997</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45114</v>
       </c>
-      <c r="B8">
-        <v>36.5</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45115</v>
       </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45116</v>
       </c>
-      <c r="B10">
-        <v>36.299999999999997</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45117</v>
       </c>
-      <c r="B11">
-        <v>36.1</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45118</v>
       </c>
-      <c r="B12">
-        <v>36.5</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45119</v>
       </c>
-      <c r="B13">
-        <v>36.200000000000003</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45120</v>
       </c>
-      <c r="B14">
-        <v>36.5</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45121</v>
       </c>
-      <c r="B15">
-        <v>36.799999999999997</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45122</v>
       </c>
-      <c r="B16">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45123</v>
       </c>
-      <c r="B17">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45124</v>
       </c>
-      <c r="B18">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45125</v>
       </c>
-      <c r="B19">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45126</v>
       </c>
-      <c r="B20">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45127</v>
       </c>
-      <c r="B21">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45128</v>
       </c>
-      <c r="B22">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45129</v>
       </c>
-      <c r="B23">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45130</v>
       </c>
-      <c r="B24">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45131</v>
       </c>
-      <c r="B25">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45132</v>
       </c>
-      <c r="B26">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45133</v>
       </c>
-      <c r="B27">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45134</v>
       </c>
-      <c r="B28">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45135</v>
       </c>
-      <c r="B29">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45136</v>
       </c>
-      <c r="B30">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45137</v>
       </c>
-      <c r="B31">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45138</v>
       </c>
